--- a/template_examples/cytof_s1609_template.xlsx
+++ b/template_examples/cytof_s1609_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/VSCodeProjects/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B350BC38-9070-4749-B935-1624903E27D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A25C740-CCDC-874B-9FFF-C9B9F98461B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="3920" windowWidth="22160" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -764,9 +764,6 @@
     <t>batch1f1.fcs,batch1f2.fcs</t>
   </si>
   <si>
-    <t>control1.fcs, control2.fcs</t>
-  </si>
-  <si>
     <t>HAT123</t>
   </si>
   <si>
@@ -810,6 +807,9 @@
   </si>
   <si>
     <t>sample2-vericell.fcs</t>
+  </si>
+  <si>
+    <t>control1.fcs,control2.fcs</t>
   </si>
 </sst>
 </file>
@@ -959,9 +959,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -972,6 +969,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,7 +1313,7 @@
   <dimension ref="A1:I2018"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1325,10 +1325,10 @@
       <c r="A1" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1337,7 +1337,7 @@
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1370,7 +1370,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1403,8 +1403,8 @@
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>100</v>
+      <c r="C8" s="6" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1414,8 +1414,8 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>101</v>
+      <c r="C9" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="6">
         <v>43355</v>
       </c>
     </row>
@@ -1436,8 +1436,8 @@
       <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="7" t="s">
-        <v>102</v>
+      <c r="C11" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1481,25 +1481,25 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -1534,58 +1534,58 @@
       <c r="A19" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>114</v>
+      <c r="D19" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="E19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F19" t="s">
         <v>108</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
+        <v>101</v>
+      </c>
+      <c r="H19" t="s">
         <v>109</v>
       </c>
-      <c r="G19" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>110</v>
-      </c>
-      <c r="I19" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>115</v>
+      <c r="D20" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>108</v>
+      </c>
+      <c r="G20" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" t="s">
-        <v>109</v>
-      </c>
-      <c r="G20" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" t="s">
-        <v>110</v>
-      </c>
-      <c r="I20" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -11609,17 +11609,17 @@
       <c r="A1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/template_examples/cytof_s1609_template.xlsx
+++ b/template_examples/cytof_s1609_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rbiswas/VSCodeProjects/cidc-schemas/template_examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A25C740-CCDC-874B-9FFF-C9B9F98461B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BD12E25-1588-1641-AC22-770CC291D92C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="3920" windowWidth="22160" windowHeight="12380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="3920" windowWidth="22160" windowHeight="12380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acquisition and Preprocessing" sheetId="1" r:id="rId1"/>
@@ -461,7 +461,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4201" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4217" uniqueCount="126">
   <si>
     <t>LEGEND</t>
   </si>
@@ -810,6 +810,36 @@
   </si>
   <si>
     <t>control1.fcs,control2.fcs</t>
+  </si>
+  <si>
+    <t>CD8</t>
+  </si>
+  <si>
+    <t>C8/144b</t>
+  </si>
+  <si>
+    <t>DAKO</t>
+  </si>
+  <si>
+    <t>C8-ABC</t>
+  </si>
+  <si>
+    <t>146Nd</t>
+  </si>
+  <si>
+    <t>100X</t>
+  </si>
+  <si>
+    <t>PD-L1</t>
+  </si>
+  <si>
+    <t>C2/11p</t>
+  </si>
+  <si>
+    <t>C8-AB123</t>
+  </si>
+  <si>
+    <t>146Nb</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2018"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -11598,7 +11628,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J2002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:J4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -11657,10 +11689,64 @@
       <c r="A3" t="s">
         <v>93</v>
       </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3">
+        <v>3983272</v>
+      </c>
+      <c r="G3" t="s">
+        <v>120</v>
+      </c>
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
+      </c>
+      <c r="B4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4">
+        <v>1231272</v>
+      </c>
+      <c r="G4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" t="s">
+        <v>81</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -21666,13 +21752,13 @@
           <x14:formula1>
             <xm:f>'Data Dictionary'!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I2002</xm:sqref>
+          <xm:sqref>I5:I2002</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>'Data Dictionary'!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>J3:J2002</xm:sqref>
+          <xm:sqref>J5:J2002</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
